--- a/files/operations.xlsx
+++ b/files/operations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Omnitech-Script\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Operations" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
 jdTe3dkN4d0cldFS</t>
   </si>
   <si>
-    <t>{"inputNewJson":"{\"parameters\":{\"access_token\":\"gIiap1sc45lVr1iVyHI6kg\u003d\u003d\",\"doc_type\":\"sale\",\"data\":{\"cashier\":\"Superman\",\"currency\":\"AZN\",\"items\":[{\"itemName\":\"SUN SALFET QAZLI_30*30sm_100ed (1*40)\",\"itemCodeType\":1,\"itemCode\":\"4760092800907\",\"itemQuantityType\":0,\"itemQuantity\":2,\"itemPrice\":0.719304,\"itemSum\":1.438608,\"itemVatPercent\":18,\"itemMarginPrice\":null,\"itemMarginSum\":null}],\"sum\":1.438608,\"cashSum\":1.438608,\"cashlessSum\":0.00,\"prepaymentSum\":0.00,\"creditSum\":0.00,\"bonusSum\":0.00,\"vatAmounts\":[{\"vatSum\":1.438608,\"vatPercent\":18.0}]}},\"operationId\":\"createDocument\",\"version\":1}","operationId":"createDocument","parameters":{"access_token":"gIiap1sc45lVr1iVyHI6kg\u003d\u003d","data":{"bonusSum":0.00,"cashSum":1.438608,"cashier":"Superman","cashlessSum":0.00,"creditSum":0.00,"currency":"AZN","firstOperationAtUtc":"","items":[{"discount":0,"itemCode":"4760092800907","itemCodeType":0,"itemName":"SUN SALFET QAZLI_30*30sm_100ed (1*40)","itemPrice":0.719304,"itemQuantity":2,"itemQuantityType":0,"itemSum":1.438608,"itemVatPercent":18}],"lastOperationAtUtc":"","moneyBackType":0,"parentDocument":"","parents":[],"paymentNumber":0,"prepaymentSum":0.00,"refund_document_number":"","refund_short_document_id":"","residue":0,"sum":1.438608,"vatAmounts":[{"vatPercent":18,"vatSum":1.438608}],"xorekaData":[]},"doc_type":"sale"},"version":1}</t>
-  </si>
-  <si>
     <t>811f53b33af3e71dbb64d494ec88067e</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>{"code":0,"data":{"document_id":"EN6oXGJznU4Grr754sYJ7bUR8ZmzvhS7gebfpm7YAjii","document_number":630,"shift_document_number":1,"short_document_id":"EN6oXGJznU4G"},"message":"Successful operation"}</t>
+  </si>
+  <si>
+    <t>{"operationId":"createDocument","parameters":{"access_token":"QWizXHSbSjcmMhDm3ss6Mw\u003d\u003d","data":{"bonusSum":0.0,"cashSum":400.0,"cashier":"Admin","cashlessSum":0.0,"creditSum":0.0,"currency":"AZN","firstOperationAtUtc":"","items":[{"discount":0.0,"itemCode":"1234567891002","itemCodeType":0,"itemName":"NMQ (TOKEN) ","itemPrice":32.4972,"itemQuantity":1.0,"itemQuantityType":0,"itemSum":32.4972,"itemVatPercent":18.0},{"discount":0.0,"itemCode":"1234567891001","itemCodeType":0,"itemName":"Omnitech TPS 575 (340)","itemPrice":367.4992,"itemQuantity":1.0,"itemQuantityType":0,"itemSum":367.4992,"itemVatPercent":18.0}],"lastOperationAtUtc":"","parentDocument":"","prepaymentSum":0.0,"refund_document_number":"","refund_short_document_id":"","sum":400.0,"vatAmounts":[{"vatPercent":18.0,"vatSum":399.9964}]},"doc_type":"sale"},"version":1}</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,25 +743,25 @@
         <v>25</v>
       </c>
       <c r="N2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
         <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -778,7 +778,7 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
@@ -790,31 +790,31 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
         <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -831,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -843,48 +843,48 @@
         <v>23</v>
       </c>
       <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P4" t="s">
         <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
@@ -896,31 +896,31 @@
         <v>23</v>
       </c>
       <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
         <v>42</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
         <v>22</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -937,7 +937,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -949,48 +949,48 @@
         <v>23</v>
       </c>
       <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
         <v>47</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>48</v>
       </c>
-      <c r="N6" t="s">
-        <v>49</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
         <v>22</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -1002,48 +1002,48 @@
         <v>23</v>
       </c>
       <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
         <v>54</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>55</v>
       </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
       <c r="O7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
         <v>22</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
         <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
@@ -1055,31 +1055,31 @@
         <v>23</v>
       </c>
       <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
         <v>61</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>62</v>
       </c>
-      <c r="N8" t="s">
-        <v>63</v>
-      </c>
       <c r="O8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s">
         <v>22</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -1108,48 +1108,48 @@
         <v>23</v>
       </c>
       <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" t="s">
         <v>66</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>67</v>
       </c>
-      <c r="N9" t="s">
-        <v>68</v>
-      </c>
       <c r="O9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
         <v>22</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
         <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -1161,31 +1161,31 @@
         <v>23</v>
       </c>
       <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
         <v>72</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>73</v>
       </c>
-      <c r="N10" t="s">
-        <v>74</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P10" t="s">
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
@@ -1214,30 +1214,30 @@
         <v>23</v>
       </c>
       <c r="L11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" t="s">
         <v>77</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>78</v>
       </c>
-      <c r="N11" t="s">
-        <v>79</v>
-      </c>
       <c r="O11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P11" t="s">
         <v>22</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1255,7 +1255,7 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
@@ -1267,22 +1267,22 @@
         <v>23</v>
       </c>
       <c r="L12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" t="s">
         <v>81</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>82</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" t="s">
         <v>83</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/files/operations.xlsx
+++ b/files/operations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Omnitech-Script\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Operations" sheetId="1" r:id="rId1"/>
@@ -100,6 +100,9 @@
 jdTe3dkN4d0cldFS</t>
   </si>
   <si>
+    <t>{"inputNewJson":"{\"parameters\":{\"access_token\":\"gIiap1sc45lVr1iVyHI6kg\u003d\u003d\",\"doc_type\":\"sale\",\"data\":{\"cashier\":\"Superman\",\"currency\":\"AZN\",\"items\":[{\"itemName\":\"SUN SALFET QAZLI_30*30sm_100ed (1*40)\",\"itemCodeType\":1,\"itemCode\":\"4760092800907\",\"itemQuantityType\":0,\"itemQuantity\":2,\"itemPrice\":0.719304,\"itemSum\":1.438608,\"itemVatPercent\":18,\"itemMarginPrice\":null,\"itemMarginSum\":null}],\"sum\":1.438608,\"cashSum\":1.438608,\"cashlessSum\":0.00,\"prepaymentSum\":0.00,\"creditSum\":0.00,\"bonusSum\":0.00,\"vatAmounts\":[{\"vatSum\":1.438608,\"vatPercent\":18.0}]}},\"operationId\":\"createDocument\",\"version\":1}","operationId":"createDocument","parameters":{"access_token":"gIiap1sc45lVr1iVyHI6kg\u003d\u003d","data":{"bonusSum":0.00,"cashSum":1.438608,"cashier":"Superman","cashlessSum":0.00,"creditSum":0.00,"currency":"AZN","firstOperationAtUtc":"","items":[{"discount":0,"itemCode":"4760092800907","itemCodeType":0,"itemName":"SUN SALFET QAZLI_30*30sm_100ed (1*40)","itemPrice":0.719304,"itemQuantity":2,"itemQuantityType":0,"itemSum":1.438608,"itemVatPercent":18}],"lastOperationAtUtc":"","moneyBackType":0,"parentDocument":"","parents":[],"paymentNumber":0,"prepaymentSum":0.00,"refund_document_number":"","refund_short_document_id":"","residue":0,"sum":1.438608,"vatAmounts":[{"vatPercent":18,"vatSum":1.438608}],"xorekaData":[]},"doc_type":"sale"},"version":1}</t>
+  </si>
+  <si>
     <t>811f53b33af3e71dbb64d494ec88067e</t>
   </si>
   <si>
@@ -315,9 +318,6 @@
   </si>
   <si>
     <t>{"code":0,"data":{"document_id":"EN6oXGJznU4Grr754sYJ7bUR8ZmzvhS7gebfpm7YAjii","document_number":630,"shift_document_number":1,"short_document_id":"EN6oXGJznU4G"},"message":"Successful operation"}</t>
-  </si>
-  <si>
-    <t>{"operationId":"createDocument","parameters":{"access_token":"QWizXHSbSjcmMhDm3ss6Mw\u003d\u003d","data":{"bonusSum":0.0,"cashSum":400.0,"cashier":"Admin","cashlessSum":0.0,"creditSum":0.0,"currency":"AZN","firstOperationAtUtc":"","items":[{"discount":0.0,"itemCode":"1234567891002","itemCodeType":0,"itemName":"NMQ (TOKEN) ","itemPrice":32.4972,"itemQuantity":1.0,"itemQuantityType":0,"itemSum":32.4972,"itemVatPercent":18.0},{"discount":0.0,"itemCode":"1234567891001","itemCodeType":0,"itemName":"Omnitech TPS 575 (340)","itemPrice":367.4992,"itemQuantity":1.0,"itemQuantityType":0,"itemSum":367.4992,"itemVatPercent":18.0}],"lastOperationAtUtc":"","parentDocument":"","prepaymentSum":0.0,"refund_document_number":"","refund_short_document_id":"","sum":400.0,"vatAmounts":[{"vatPercent":18.0,"vatSum":399.9964}]},"doc_type":"sale"},"version":1}</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,24 +743,24 @@
         <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -778,7 +778,7 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
@@ -790,30 +790,30 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
         <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -831,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -843,36 +843,36 @@
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
         <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
@@ -896,30 +896,30 @@
         <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
         <v>22</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -937,7 +937,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -949,36 +949,36 @@
         <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
         <v>22</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -990,7 +990,7 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -1002,36 +1002,36 @@
         <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
         <v>22</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1043,7 +1043,7 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
@@ -1055,30 +1055,30 @@
         <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P8" t="s">
         <v>22</v>
       </c>
       <c r="Q8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1096,7 +1096,7 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -1108,36 +1108,36 @@
         <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P9" t="s">
         <v>22</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -1149,7 +1149,7 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -1161,30 +1161,30 @@
         <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P10" t="s">
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1202,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
@@ -1214,30 +1214,30 @@
         <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s">
         <v>22</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1255,7 +1255,7 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
@@ -1267,22 +1267,22 @@
         <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P12" t="s">
         <v>22</v>
       </c>
       <c r="Q12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
